--- a/LF/PreTAS/Ivory Coast/2024/ci_lf_pretas_2406_2_men.xlsx
+++ b/LF/PreTAS/Ivory Coast/2024/ci_lf_pretas_2406_2_men.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Ivory Coast\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E9B20D-5496-4A21-B9E1-484391A6CEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3C5DDF-DCC1-42E0-93F4-2158218BBF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="128">
   <si>
     <t>type</t>
   </si>
@@ -355,9 +355,6 @@
     <t>Diplôme d.études supérieures / Diplôme d.études supérieures</t>
   </si>
   <si>
-    <t>ci_lf_pretas_2406_2_men_v4</t>
-  </si>
-  <si>
     <t>m_recorder</t>
   </si>
   <si>
@@ -394,9 +391,6 @@
     <t>m_numero_menage</t>
   </si>
   <si>
-    <t>concat(${m_recorder}, '_', ${m_site_id}, '_', if(${last-saved#m_numero_menage}!=null,${last-saved#m_numero_menage} + 1,1))</t>
-  </si>
-  <si>
     <t>m_notes</t>
   </si>
   <si>
@@ -406,7 +400,22 @@
     <t>m_end</t>
   </si>
   <si>
-    <t>(2024 Juillet) 2. EMS Formulaire Ménage V4</t>
+    <t>m_index_men</t>
+  </si>
+  <si>
+    <t>Index du numéro ménage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if(${last-saved#m_index_men}!=null,${last-saved#m_index_men} + 1,1)</t>
+  </si>
+  <si>
+    <t>concat(${m_recorder}, '_', ${m_site_id}, '_', ${m_index_men})</t>
+  </si>
+  <si>
+    <t>(2024 Juillet) 2. EMS Formulaire Ménage V4.2</t>
+  </si>
+  <si>
+    <t>ci_lf_pretas_2406_2_men_v4_2</t>
   </si>
 </sst>
 </file>
@@ -862,9 +871,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -938,7 +947,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
@@ -967,7 +976,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>19</v>
@@ -989,7 +998,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -1003,7 +1012,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1011,7 +1020,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>50</v>
@@ -1026,7 +1035,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>51</v>
@@ -1041,7 +1050,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>52</v>
@@ -1060,7 +1069,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>53</v>
@@ -1079,7 +1088,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>54</v>
@@ -1101,7 +1110,7 @@
         <v>60</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>55</v>
@@ -1111,7 +1120,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
@@ -1123,64 +1132,82 @@
     </row>
     <row r="11" spans="1:14" customFormat="1">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" customFormat="1">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" s="1" customFormat="1">
-      <c r="A12" s="9" t="s">
+      <c r="N12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1">
+      <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="B13" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" s="1" customFormat="1">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1758,8 +1785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1785,10 +1812,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
